--- a/InputData/elec/SYGBSC/Start Year Grid Battery Storage Capacity.xlsx
+++ b/InputData/elec/SYGBSC/Start Year Grid Battery Storage Capacity.xlsx
@@ -8913,7 +8913,7 @@
         </is>
       </c>
       <c r="B2" s="22" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3">
